--- a/main/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/main/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T14:01:50+00:00</t>
+    <t>2025-01-17T14:38:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1491,7 +1491,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R5/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R5/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R5/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>

--- a/main/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/main/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-17T14:38:13+00:00</t>
+    <t>2025-01-17T14:46:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/main/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-17T14:46:02+00:00</t>
+    <t>2025-01-20T14:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/main/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T14:10:20+00:00</t>
+    <t>2025-01-21T09:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/main/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T09:48:34+00:00</t>
+    <t>2025-01-21T10:26:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/main/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T10:26:00+00:00</t>
+    <t>2025-05-09T14:19:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1940,17 +1940,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.96484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.40234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="135.15234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="115.8671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1959,29 +1959,29 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.75" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.94140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="54.65625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="46.859375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/main/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-09T14:19:04+00:00</t>
+    <t>2025-05-14T13:09:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL</t>
+    <t>KEREVAL and DOMASIA team of the Signal and Image Processing Laboratory (LTSI)</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL (https://ltsi.univ-rennes.fr)</t>
+    <t>KEREVAL and DOMASIA team of the Signal and Image Processing Laboratory (LTSI) (https://github.com/ONCOFAIR)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/main/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/main/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-14T13:09:12+00:00</t>
+    <t>2025-05-16T07:42:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/main/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T07:42:08+00:00</t>
+    <t>2025-05-22T14:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-oncofair-observation.xlsx
+++ b/main/ig/StructureDefinition-oncofair-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:36:39+00:00</t>
+    <t>2025-05-22T14:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
